--- a/partners.xlsx
+++ b/partners.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,172 +24,326 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>SOM</t>
   </si>
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>New United States Courthouse</t>
+  </si>
+  <si>
+    <t>Geffen Hall, David Geffen School of Medicine at UCLA</t>
+  </si>
+  <si>
+    <t>Cleveland Clinic Florida Nuerological Institute</t>
+  </si>
+  <si>
+    <t>The Desmond Building</t>
+  </si>
+  <si>
+    <t>The Kathleen Grimm School for Leadership and Sustainability at Sandy Ground</t>
+  </si>
+  <si>
+    <t>net zero energy</t>
+  </si>
+  <si>
+    <t>55 W 46 St</t>
+  </si>
+  <si>
+    <t>Leed Gold</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>commerical, mixed use</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>San Bernardino Justice Center</t>
+  </si>
+  <si>
+    <t>LEED Silver</t>
+  </si>
+  <si>
+    <t>civic, government</t>
+  </si>
+  <si>
+    <t>mep</t>
+  </si>
+  <si>
+    <t>Mount Sinai Hess Center for Science and Medicine</t>
+  </si>
+  <si>
+    <t>University- the New School</t>
+  </si>
+  <si>
+    <t>LEED Gold</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>architecture and interior design</t>
+  </si>
+  <si>
+    <t>John Jay School of Criminal Justice</t>
+  </si>
+  <si>
+    <t>UCSD Medical and Telemedicine Building</t>
+  </si>
+  <si>
+    <t>education,  health and science</t>
+  </si>
+  <si>
+    <t>RAMSA</t>
+  </si>
+  <si>
+    <t>Wasserstein Hall, Caperson Student Center, and Clinical Hall</t>
+  </si>
+  <si>
+    <t>Hancock Center Marist College</t>
+  </si>
+  <si>
+    <t>Abington House on the Highline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becker Business Building </t>
+  </si>
+  <si>
+    <t>The Clarendon</t>
+  </si>
+  <si>
+    <t>Heavener Hall</t>
+  </si>
+  <si>
+    <t>North Hall and Library Bronx Community College</t>
+  </si>
+  <si>
+    <t>68000 sf/ 2 stories
+34000 sf floor plate</t>
+  </si>
+  <si>
+    <t>architecture, interior design, sustainable design</t>
+  </si>
+  <si>
+    <t>Sustainablility Certification/Claim</t>
+  </si>
+  <si>
+    <t>250 W 55th St</t>
+  </si>
+  <si>
+    <t>46415 sf/ 39 stories
+1190 sf floor plate</t>
+  </si>
+  <si>
+    <t>commerical + office</t>
+  </si>
+  <si>
+    <t>24000 sf/ 34 stories
+705 sf floor plate</t>
+  </si>
+  <si>
+    <t>42486 sf/ 11 stories
+3862 sf floor plate</t>
+  </si>
+  <si>
+    <t>370000 sf/ 16 stories
+23125 sf floor plate</t>
+  </si>
+  <si>
+    <t>100000 sf, 14 stories
+7142 sf floor plate</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>31560 sf/ 10 stories
+3156 sf floor plate</t>
+  </si>
+  <si>
+    <t>145000 sf/ 5 stories
+29000 sf floor plate</t>
+  </si>
+  <si>
+    <t>architecture, interior design, structural and civil engineering</t>
+  </si>
+  <si>
+    <t>LEED Platinum</t>
+  </si>
+  <si>
+    <t>civic + government</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> architecture, graphics + branding, interior design, structural + civil engineering</t>
+  </si>
+  <si>
+    <t>education, health + science</t>
+  </si>
+  <si>
+    <t>architecture, structural + civil engineering</t>
+  </si>
+  <si>
+    <t>architecture, interior design</t>
+  </si>
+  <si>
+    <t>health + science</t>
+  </si>
+  <si>
+    <t>commercial + office</t>
+  </si>
+  <si>
+    <t>"high performance glass windows to reduce energy usage"</t>
+  </si>
+  <si>
+    <t>88000 ft/ 6 stories
+14666 sf floor plate</t>
+  </si>
+  <si>
+    <t>15685 sf/ 6 stories
+2614 sf floor plate</t>
+  </si>
+  <si>
+    <t>361,700 sf/ 11 stories
+32881 sf floor plate</t>
+  </si>
+  <si>
+    <t>88000 sf/ 3 stories
+29333 sf floor plate</t>
+  </si>
+  <si>
+    <t>266000 sf/ 6 stories
+44333 sf floor plate</t>
+  </si>
+  <si>
+    <t>384000 sf/ 33 stories
+11636 sf floor plate</t>
+  </si>
+  <si>
+    <t>57664 sf/ 4 stories
+14416 sf floor plate</t>
+  </si>
+  <si>
+    <t>400000 sf/ 32 stories
+12500 sf floor plate</t>
+  </si>
+  <si>
+    <t>98600 sf/ 3 stories
+32866 sf floor plate</t>
+  </si>
+  <si>
+    <t>43000 sf/ 3 stories
+14333 sf floor plate</t>
+  </si>
+  <si>
+    <t>54600 sf/ 4 stories
+13650 sf floor plate</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>residential tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">architecture, interior design </t>
+  </si>
+  <si>
+    <t>98000 sf/ 3 stories
+32666 sf floor plate</t>
+  </si>
+  <si>
+    <t>The Century</t>
+  </si>
+  <si>
+    <t>884468 sf/ 42 stories
+21058 sf floor plate</t>
+  </si>
+  <si>
+    <t>Gap Inc. Offices</t>
+  </si>
+  <si>
+    <t>predates LEED certification but "an exemplar of energy conservation and sustainable design, both in its construction and in its operation. The building features operable windows, and an energy-conserving underfloor air supply system which takes advantage of the building's thermal mass to reduce peak cooling loads. This building was also the largest application of certified sustainable wood veneers in the nation."</t>
+  </si>
+  <si>
+    <t>648750 sf/ 15 stories
+43250 sf floor plate</t>
+  </si>
+  <si>
+    <t>Mazinata Hall at California State University</t>
+  </si>
+  <si>
     <t>SCB</t>
   </si>
   <si>
-    <t>RAMSA</t>
-  </si>
-  <si>
-    <t>Southeast Coastal</t>
-  </si>
-  <si>
-    <t>Northeast Coastal</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
-  <si>
-    <t>Alcoa Building
-Cathedral of Christ the Light
-Bank of America World Headquarters
-New United States Courthouse
-San Francisco International Airport
-US Court of Appeals 
-San Diego Central Courthouse
-Monterey Conference Center
-101 Second Street
-350 Mission Street
-8 Washington Street
-Bay Area Discovery Museum
-680 Folsom
-Centennial Tower
-Crown Zellerbach Museum
-Electronic Arts Headquarters
-Moscone Center Expansion and Improvement
-New United States Courthouse
-Dewey Ballantine LLP
-San Bernardino Justice Center
-San Francisco Veteran Affairs Medical Center
-St. Regis Hotel and Residences
-The Desmond
-Green Hall, David Geffen School of Medicine at UCLA
-University of California Merced Kolligian LIbrary
-Kia Design Center
-Pen Factory
-Oaklabd - Alameda County Coliseum
-Oakland Museum of California
-Transbay Redevelopment Project Block 9
-Twelve555 Renovation
-San Francisco Center Complex
-San Bernardino Justice Center
-Standford University- Graduate School of Business Renovation and Knight Building Addition
-Standford Center for Innovations in Learning
-UCSD Medical Education and Telemedicine Building
-University of California Merced-Kolligian Library
-University of California San Francisco Campus Housing
-UCSD Medical Education and Telemedicine Building
-University of California San Francisco Sandler Neurosciences Center
-W Huntington Beach</t>
-  </si>
-  <si>
-    <t>Harvard University Northwest Science Building
-Yale University Beinecke Rare Book and Manuscript Library
-The Kathleen Grimm School for Leadership and Sustainability at Sandy Ground
-Greenwich Academy- Upper School
-Burr Street Elementary School
-Brunswick School</t>
-  </si>
-  <si>
-    <t>Jacksonville Public Library
-House at Seaside
-Becker Business Building
-Barnett Residential Life Center
-Celebration Health
-Clearwater Public Library
-Correll Hall
-Courtyard Pavilions Project
-Diaz-Balart Hall
-Las Olas
-Mandarin Oriental
-Miami Beach Library</t>
-  </si>
-  <si>
-    <t>Anna Pauline Murray College and Benjamin Franklin College
-Spangler Campus Center
-Wasserstein Hall, Caspersent Student Center, and Clinical Wing
-Kohler Environmental Center
-The Clarendon
-The Norman Rockwell Museum at Stockbridge
-222 Berkeley Street
-Baker Library
-Bedford Family Center
-Greenberg Conference Center
-House at Blue Water Hill
-House on Buzzards Bay
-Ohrstrom Library
-Residence at West Chop
-Residence at Katama
-Residence in Edgartown
-Residence at West Tisbury
-Residences at Lovejoy Wharf
-Rodgers Recreation Center</t>
-  </si>
-  <si>
-    <t>The Century
-Resident in Montecito
-Gap Inc Offices
-Resident on Bel Air Road
-Calabasas Civic Center
-Feature Animation Building
-Gates Computer Science Building
-Manzanita Hall
-Smith Campus Center
-Santa Monica Campus</t>
-  </si>
-  <si>
-    <t>The Bristol
-Marriott Hotel</t>
-  </si>
-  <si>
-    <t>AVA 55 Ninth
-Glen Mor II
-Solaire
-100 Van Ness
-Howard S. and Alida S. Charney Hall of Law
-One Rincon Hill
-University of California Merced Classroom and Academic Offfice Building
-399 Freemont
-University of California Davis Welcome Cetner
-California State University, Sacremento State Student Housing
-San Jose State University Campus Village 2</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Sutainable Claim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Cleveland Clinic Florida Neurological Institute
-The Federal Reserve Bank of Atlanta-</t>
-  </si>
-  <si>
-    <t>Clevenland Clinic Florida Neurological Institute (5 stories, 165,000 sf)</t>
-  </si>
-  <si>
-    <t>Comparable sizes</t>
-  </si>
-  <si>
-    <t>Harvard University Northwest Science Building (4 stories, 144000 site sf)
-Yale University Beinecke Rare Book and Manuscript Library (6 stories, 88000)
-The Kathleen Grimm School (2 stories, 68000)
-Greenwich (2 stories, 550000)</t>
+    <t>100 Van Ness</t>
+  </si>
+  <si>
+    <t>510000 sf/ 29 stories
+17586 sf floor plate</t>
+  </si>
+  <si>
+    <t>Glen Morr II</t>
+  </si>
+  <si>
+    <t>campus residential</t>
+  </si>
+  <si>
+    <t>343000 sf/ 5 stories
+68600 sf floor plate</t>
+  </si>
+  <si>
+    <t>Welcome Center, UC Davis</t>
+  </si>
+  <si>
+    <t>campus hospitality</t>
+  </si>
+  <si>
+    <t>The Bristol</t>
+  </si>
+  <si>
+    <t>450000 sf/ 25 stories
+18000 sf floor plate</t>
+  </si>
+  <si>
+    <t>Area (Gross&amp;floor plate sf)</t>
+  </si>
+  <si>
+    <t>8000 sf / 2 stories
+4000 sf floor plate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,16 +366,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,122 +660,573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
+      <c r="C29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId10"/>
+    <hyperlink ref="C8" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C19" r:id="rId17"/>
+    <hyperlink ref="C22" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C25" r:id="rId20"/>
+    <hyperlink ref="C24" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C28" r:id="rId23"/>
+    <hyperlink ref="C29" r:id="rId24"/>
+    <hyperlink ref="C30" r:id="rId25"/>
+    <hyperlink ref="C31" r:id="rId26"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>